--- a/public/template_barang.xlsx
+++ b/public/template_barang.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pribadi\#matkul semester 5\Web Lanjut\P08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6C77E80-DC8C-46A3-9AF3-8FA9A3BAF128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B0CAF8-5910-4AF2-8E84-A398464D0D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2B906170-4CD3-4196-B555-33A764700E90}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>kategori_id</t>
   </si>
@@ -40,36 +40,6 @@
   </si>
   <si>
     <t>harga_jual</t>
-  </si>
-  <si>
-    <t>KS04</t>
-  </si>
-  <si>
-    <t>EK04</t>
-  </si>
-  <si>
-    <t>FN04</t>
-  </si>
-  <si>
-    <t>KC04</t>
-  </si>
-  <si>
-    <t>KH04</t>
-  </si>
-  <si>
-    <t>Air Mineral</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>Sofa</t>
-  </si>
-  <si>
-    <t>Sunscreen</t>
-  </si>
-  <si>
-    <t>Kasa</t>
   </si>
 </sst>
 </file>
@@ -430,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028640CA-9969-49EC-9139-52025902AD5B}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,91 +432,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>2500</v>
-      </c>
-      <c r="E2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>900000</v>
-      </c>
-      <c r="E3">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>450000</v>
-      </c>
-      <c r="E4">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>45000</v>
-      </c>
-      <c r="E5">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>10000</v>
-      </c>
-      <c r="E6">
-        <v>12000</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
